--- a/biology/Botanique/Uvariastrum_zenkeri/Uvariastrum_zenkeri.xlsx
+++ b/biology/Botanique/Uvariastrum_zenkeri/Uvariastrum_zenkeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uvariastrum zenkeri Engl. &amp; Diels est une espèce de plantes de la famille des Annonaceae et du genre Uvariastrum, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (16 janvier 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (16 janvier 2018) :
 variété Uvariastrum zenkeri var. nigritianum Baker f.</t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique zenkeri rend hommage au botaniste allemand Georg August Zenker, qui découvrit le premier spécimen à Bipindi en 1904[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique zenkeri rend hommage au botaniste allemand Georg August Zenker, qui découvrit le premier spécimen à Bipindi en 1904.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre ou arbuste pouvant atteindre 20 m de hauteur et jusqu'à 30 cm de diamètre[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre ou arbuste pouvant atteindre 20 m de hauteur et jusqu'à 30 cm de diamètre.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez répandue, l'espèce est présente depuis l'extrême-est du Nigeria et le sud-ouest du Cameroun jusqu'à la République démocratique du Congo. On la trouve notamment dans plusieurs parcs nationaux, tels que le parc national de Korup et la réserve du Dja au Cameroun et le parc national de Loango au Gabon[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez répandue, l'espèce est présente depuis l'extrême-est du Nigeria et le sud-ouest du Cameroun jusqu'à la République démocratique du Congo. On la trouve notamment dans plusieurs parcs nationaux, tels que le parc national de Korup et la réserve du Dja au Cameroun et le parc national de Loango au Gabon.
 </t>
         </is>
       </c>
